--- a/documentation/Continuous_Tbl 1_Blank.xlsx
+++ b/documentation/Continuous_Tbl 1_Blank.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Production/Projects/Video/Video In Progress/Descriptive Healthcare Analytics in R_504399/2_Project/Exercise Files/Ch05/05_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94B57E-3DB2-4A0C-8809-7B99AB3A2122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1800" yWindow="2760" windowWidth="19980" windowHeight="13120"/>
+    <workbookView xWindow="17655" yWindow="-14340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Continuous" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -267,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -665,19 +671,19 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3:I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="7"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,7 +718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,7 +743,7 @@
         <v>58131</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
@@ -780,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
@@ -926,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -989,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>32</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>

--- a/documentation/Continuous_Tbl 1_Blank.xlsx
+++ b/documentation/Continuous_Tbl 1_Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94B57E-3DB2-4A0C-8809-7B99AB3A2122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84081215-EFB6-4F0B-A06A-189DFC3CA78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17655" yWindow="-14340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="-13695" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Continuous" sheetId="1" r:id="rId1"/>
